--- a/deneme.xlsx
+++ b/deneme.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>zp502</t>
   </si>
   <si>
     <t>pu999</t>
+  </si>
+  <si>
+    <t>marka</t>
   </si>
 </sst>
 </file>
@@ -360,19 +363,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
     </row>

--- a/deneme.xlsx
+++ b/deneme.xlsx
@@ -16,15 +16,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>zp502</t>
   </si>
   <si>
-    <t>pu999</t>
-  </si>
-  <si>
-    <t>marka</t>
+    <t>rafet</t>
+  </si>
+  <si>
+    <t>parlak</t>
+  </si>
+  <si>
+    <t>WIXSIMPL</t>
+  </si>
+  <si>
+    <t>LF653</t>
+  </si>
+  <si>
+    <t>BIGA</t>
+  </si>
+  <si>
+    <t>AF255</t>
+  </si>
+  <si>
+    <t>DELUXE</t>
+  </si>
+  <si>
+    <t>LF522</t>
+  </si>
+  <si>
+    <t>LENZ</t>
+  </si>
+  <si>
+    <t>HF6005</t>
+  </si>
+  <si>
+    <t>FGWILSON</t>
+  </si>
+  <si>
+    <t>FF5788</t>
+  </si>
+  <si>
+    <t>KRAMER</t>
+  </si>
+  <si>
+    <t>LF699</t>
+  </si>
+  <si>
+    <t>FF167A</t>
+  </si>
+  <si>
+    <t>FF5040</t>
+  </si>
+  <si>
+    <t>LF701</t>
+  </si>
+  <si>
+    <t>FS20088</t>
+  </si>
+  <si>
+    <t>LF3766</t>
+  </si>
+  <si>
+    <t>AF26392</t>
+  </si>
+  <si>
+    <t>LF4056</t>
   </si>
 </sst>
 </file>
@@ -60,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,26 +423,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000000049</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000000259</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000000290</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000000310</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000000322</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000000339</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000000351</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000000361</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000000410</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
